--- a/instuctions.xlsx
+++ b/instuctions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Instukční sada - IFJ15</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>VALUE</t>
+  </si>
+  <si>
+    <t>RETURN</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -280,11 +283,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -297,6 +322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -577,26 +605,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R9"/>
+  <dimension ref="B2:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="18" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="19" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -648,8 +676,11 @@
       <c r="R4" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="S4" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,8 +732,11 @@
       <c r="R5" s="5">
         <v>16</v>
       </c>
+      <c r="S5" s="13">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,8 +784,11 @@
       <c r="R6" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="S6" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -791,8 +828,9 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
+      <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -844,8 +882,11 @@
       <c r="R8" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="S8" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -896,6 +937,9 @@
       </c>
       <c r="R9" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/instuctions.xlsx
+++ b/instuctions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolas\Disk Google\VUT\IFJ\podnikatelkakillers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\podnikatelkakillers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Instukční sada - IFJ15</t>
   </si>
@@ -131,9 +131,6 @@
     <t>MÍSTO</t>
   </si>
   <si>
-    <t>IF COND JMP TO LABEL</t>
-  </si>
-  <si>
     <t>COND</t>
   </si>
   <si>
@@ -165,6 +162,48 @@
   </si>
   <si>
     <t>RETURN</t>
+  </si>
+  <si>
+    <t>IF !COND JMP TO LABEL</t>
+  </si>
+  <si>
+    <t>LABEL_LOAD</t>
+  </si>
+  <si>
+    <t>UNLOAD</t>
+  </si>
+  <si>
+    <t>FUN_ERR</t>
+  </si>
+  <si>
+    <t>Pokud nalezena, nebyl volan return</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Label, který nacte tabulku</t>
+  </si>
+  <si>
+    <t>popnuti tabulky</t>
+  </si>
+  <si>
+    <t>PUSH</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>pushne promennou</t>
+  </si>
+  <si>
+    <t>popne promennou</t>
+  </si>
+  <si>
+    <t>vola funkci</t>
   </si>
 </sst>
 </file>
@@ -309,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -325,6 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -605,26 +645,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S9"/>
+  <dimension ref="B2:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" customWidth="1"/>
-    <col min="16" max="19" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -665,22 +705,40 @@
         <v>18</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="Q4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="S4" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +793,26 @@
       <c r="S5" s="13">
         <v>17</v>
       </c>
+      <c r="T5" s="13">
+        <v>18</v>
+      </c>
+      <c r="U5" s="13">
+        <v>19</v>
+      </c>
+      <c r="V5" s="13">
+        <v>20</v>
+      </c>
+      <c r="W5" s="13">
+        <v>21</v>
+      </c>
+      <c r="X5" s="13">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -775,20 +851,22 @@
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,8 +907,11 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -874,19 +955,33 @@
         <v>32</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>46</v>
+      <c r="S8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="7"/>
+      <c r="W8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -927,19 +1022,37 @@
         <v>33</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>46</v>
+      <c r="S9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/instuctions.xlsx
+++ b/instuctions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Instukční sada - IFJ15</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>WRITE</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>COUT</t>
   </si>
   <si>
     <t>PODM_SKOK</t>
@@ -647,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>32</v>
@@ -717,25 +711,25 @@
         <v>38</v>
       </c>
       <c r="S4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="W4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
@@ -854,16 +848,10 @@
         <v>35</v>
       </c>
       <c r="P6" s="8"/>
-      <c r="Q6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="U6" s="13"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -958,27 +946,27 @@
         <v>36</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="V8" s="7"/>
       <c r="W8" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X8" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y8" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -1022,7 +1010,7 @@
         <v>33</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>34</v>
@@ -1034,25 +1022,25 @@
         <v>40</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="X9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
